--- a/excel/etf_betweenness_centrality.xlsx
+++ b/excel/etf_betweenness_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06073968705547653</v>
+        <v>0.1687747035573123</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04860123281175913</v>
+        <v>0.1350461133069829</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03508771929824561</v>
+        <v>0.09749670619235834</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03129445234708392</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005263157894736843</v>
+        <v>0.01462450592885376</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005263157894736843</v>
+        <v>0.01462450592885376</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005263157894736843</v>
+        <v>0.01462450592885376</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003793266951161687</v>
+        <v>0.01054018445322793</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003793266951161687</v>
+        <v>0.01054018445322793</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003793266951161687</v>
+        <v>0.01054018445322793</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003793266951161687</v>
+        <v>0.01054018445322793</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003793266951161687</v>
+        <v>0.01054018445322793</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003366524419155998</v>
+        <v>0.00935441370223979</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001422475106685633</v>
+        <v>0.003952569169960474</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000948316737790422</v>
+        <v>0.002635046113306983</v>
       </c>
     </row>
     <row r="17">
@@ -541,7 +541,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sanja Vranes</t>
+          <t>Igor Tartalja</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -551,7 +551,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Igor Tartalja</t>
+          <t>Pavle Vuletic</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -561,7 +561,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pavle Vuletic</t>
+          <t>Slavko Gajin</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -571,7 +571,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Slavko Gajin</t>
+          <t>Zivojin Sustran</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -581,7 +581,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Zivojin Sustran</t>
+          <t>Katarina Milenkovic</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -591,7 +591,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Katarina Milenkovic</t>
+          <t>Sanja Delcev</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -601,7 +601,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Milana Prodanov</t>
+          <t>Nemanja Kojic</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -611,160 +611,10 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sanja Delcev</t>
+          <t>Nenad Korolija</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Stefan Tubic</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Filip Hadzic</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Vladimir Jocovic</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Danko Miladinovic</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Dragana Milovancevic</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Jelica Cincovic</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Jovan Djukic</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Kristijan Ziza</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Marko Micovic</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tamara Sekularac</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Uros Radenkovic</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Aleksandar Lazic</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Dragisa Miladinovic</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Nemanja Kojic</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Nenad Korolija</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>
